--- a/csv_files/merged_data_without_LTP.xlsx
+++ b/csv_files/merged_data_without_LTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadc\PycharmProjects\fwdproject\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA6DF54-A0F9-4BF2-A5A9-53E6186D2A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F190F-6806-4745-8210-0DC229D6AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA25306F-F9BE-412F-841E-D4614913F7ED}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/merged_data_without_LTP.xlsx
+++ b/csv_files/merged_data_without_LTP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadc\PycharmProjects\fwdproject\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F190F-6806-4745-8210-0DC229D6AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0329784-B22A-454A-BC32-FCE4CC30A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA25306F-F9BE-412F-841E-D4614913F7ED}"/>
+    <workbookView xWindow="11496" yWindow="3816" windowWidth="11544" windowHeight="8424" xr2:uid="{98E19B12-7882-4827-8ED9-AB7622A39FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+  <si>
+    <t>45_days</t>
+  </si>
+  <si>
+    <t>15_days</t>
+  </si>
   <si>
     <t>stock</t>
   </si>
@@ -393,366 +399,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9D1987-FA67-41BE-8B57-630B946ACCC3}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E64CEB3-F87C-44AE-8018-A2644FD9543D}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E1">
-        <v>0.5</v>
-      </c>
-      <c r="F1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="G1">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1.236</v>
-      </c>
-      <c r="J1">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="M1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="N1">
-        <v>0.5</v>
-      </c>
-      <c r="O1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="P1">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>1.236</v>
-      </c>
-      <c r="S1">
-        <v>1.6180000000000001</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>515.54999999999995</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>549.99</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D2">
-        <v>571.29999999999995</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E2">
-        <v>588.52</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>605.75</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G2">
-        <v>630.27</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="H2">
-        <v>661.5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>695.94</v>
+        <v>1.236</v>
       </c>
       <c r="J2">
-        <v>751.7</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="K2">
-        <v>558.1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>582.5</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="M2">
-        <v>597.6</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="N2">
-        <v>609.79999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="O2">
-        <v>622</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="P2">
-        <v>639.37</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="Q2">
-        <v>661.5</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>685.9</v>
+        <v>1.236</v>
       </c>
       <c r="S2">
-        <v>725.4</v>
+        <v>1.6180000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4195.55</v>
+        <v>515.54999999999995</v>
       </c>
       <c r="C3">
-        <v>4375.25</v>
+        <v>549.99</v>
       </c>
       <c r="D3">
-        <v>4486.42</v>
+        <v>571.29999999999995</v>
       </c>
       <c r="E3">
-        <v>4576.2700000000004</v>
+        <v>588.52</v>
       </c>
       <c r="F3">
-        <v>4666.13</v>
+        <v>605.75</v>
       </c>
       <c r="G3">
-        <v>4794.05</v>
+        <v>630.27</v>
       </c>
       <c r="H3">
-        <v>4957</v>
+        <v>661.5</v>
       </c>
       <c r="I3">
-        <v>5136.7</v>
+        <v>695.94</v>
       </c>
       <c r="J3">
-        <v>5427.58</v>
+        <v>751.7</v>
       </c>
       <c r="K3">
-        <v>4529.1000000000004</v>
+        <v>558.1</v>
       </c>
       <c r="L3">
-        <v>4630.08</v>
+        <v>582.5</v>
       </c>
       <c r="M3">
-        <v>4692.5600000000004</v>
+        <v>597.6</v>
       </c>
       <c r="N3">
-        <v>4743.05</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="O3">
-        <v>4793.54</v>
+        <v>622</v>
       </c>
       <c r="P3">
-        <v>4865.43</v>
+        <v>639.37</v>
       </c>
       <c r="Q3">
-        <v>4957</v>
+        <v>661.5</v>
       </c>
       <c r="R3">
-        <v>5057.9799999999996</v>
+        <v>685.9</v>
       </c>
       <c r="S3">
-        <v>5221.4399999999996</v>
+        <v>725.4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>22000</v>
+        <v>4195.55</v>
       </c>
       <c r="C4">
-        <v>22512.880000000001</v>
+        <v>4375.25</v>
       </c>
       <c r="D4">
-        <v>22830.16</v>
+        <v>4486.42</v>
       </c>
       <c r="E4">
-        <v>23086.6</v>
+        <v>4576.2700000000004</v>
       </c>
       <c r="F4">
-        <v>23343.040000000001</v>
+        <v>4666.13</v>
       </c>
       <c r="G4">
-        <v>23708.14</v>
+        <v>4794.05</v>
       </c>
       <c r="H4">
-        <v>24173.200000000001</v>
+        <v>4957</v>
       </c>
       <c r="I4">
-        <v>24686.080000000002</v>
+        <v>5136.7</v>
       </c>
       <c r="J4">
-        <v>25516.240000000002</v>
+        <v>5427.58</v>
       </c>
       <c r="K4">
-        <v>22000</v>
+        <v>4529.1000000000004</v>
       </c>
       <c r="L4">
-        <v>22248.39</v>
+        <v>4630.08</v>
       </c>
       <c r="M4">
-        <v>22402.06</v>
+        <v>4692.5600000000004</v>
       </c>
       <c r="N4">
-        <v>22526.25</v>
+        <v>4743.05</v>
       </c>
       <c r="O4">
-        <v>22650.44</v>
+        <v>4793.54</v>
       </c>
       <c r="P4">
-        <v>22827.26</v>
+        <v>4865.43</v>
       </c>
       <c r="Q4">
-        <v>23052.5</v>
+        <v>4957</v>
       </c>
       <c r="R4">
-        <v>23300.89</v>
+        <v>5057.9799999999996</v>
       </c>
       <c r="S4">
-        <v>23702.94</v>
+        <v>5221.4399999999996</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>155</v>
+        <v>22000</v>
       </c>
       <c r="C5">
-        <v>161.58000000000001</v>
+        <v>22512.880000000001</v>
       </c>
       <c r="D5">
-        <v>165.66</v>
+        <v>22830.16</v>
       </c>
       <c r="E5">
-        <v>168.95</v>
+        <v>23086.6</v>
       </c>
       <c r="F5">
-        <v>172.24</v>
+        <v>23343.040000000001</v>
       </c>
       <c r="G5">
-        <v>176.93</v>
+        <v>23708.14</v>
       </c>
       <c r="H5">
-        <v>182.9</v>
+        <v>24173.200000000001</v>
       </c>
       <c r="I5">
-        <v>189.48</v>
+        <v>24686.080000000002</v>
       </c>
       <c r="J5">
-        <v>200.14</v>
+        <v>25516.240000000002</v>
       </c>
       <c r="K5">
-        <v>155</v>
+        <v>22000</v>
       </c>
       <c r="L5">
-        <v>157.99</v>
+        <v>22248.39</v>
       </c>
       <c r="M5">
-        <v>159.83000000000001</v>
+        <v>22402.06</v>
       </c>
       <c r="N5">
-        <v>161.32</v>
+        <v>22526.25</v>
       </c>
       <c r="O5">
-        <v>162.82</v>
+        <v>22650.44</v>
       </c>
       <c r="P5">
-        <v>164.94</v>
+        <v>22827.26</v>
       </c>
       <c r="Q5">
-        <v>167.65</v>
+        <v>23052.5</v>
       </c>
       <c r="R5">
-        <v>170.64</v>
+        <v>23300.89</v>
       </c>
       <c r="S5">
-        <v>175.47</v>
+        <v>23702.94</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>161.58000000000001</v>
+      </c>
+      <c r="D6">
+        <v>165.66</v>
+      </c>
+      <c r="E6">
+        <v>168.95</v>
+      </c>
+      <c r="F6">
+        <v>172.24</v>
+      </c>
+      <c r="G6">
+        <v>176.93</v>
+      </c>
+      <c r="H6">
+        <v>182.9</v>
+      </c>
+      <c r="I6">
+        <v>189.48</v>
+      </c>
+      <c r="J6">
+        <v>200.14</v>
+      </c>
+      <c r="K6">
+        <v>155</v>
+      </c>
+      <c r="L6">
+        <v>157.99</v>
+      </c>
+      <c r="M6">
+        <v>159.83000000000001</v>
+      </c>
+      <c r="N6">
+        <v>161.32</v>
+      </c>
+      <c r="O6">
+        <v>162.82</v>
+      </c>
+      <c r="P6">
+        <v>164.94</v>
+      </c>
+      <c r="Q6">
+        <v>167.65</v>
+      </c>
+      <c r="R6">
+        <v>170.64</v>
+      </c>
+      <c r="S6">
+        <v>175.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>212.45</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>220.13</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>224.88</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>228.72</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>232.57</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>238.03</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>245</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>252.68</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>265.12</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>215.4</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>220.64</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>223.88</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>226.5</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>229.12</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>232.85</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>237.6</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>242.84</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>251.32</v>
       </c>
     </row>

--- a/csv_files/merged_data_without_LTP.xlsx
+++ b/csv_files/merged_data_without_LTP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadc\PycharmProjects\fwdproject\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A47C4FE-72CC-4E5A-A93D-AC771A8C164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5E9617-2683-4742-AD9D-09486846DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11496" yWindow="3816" windowWidth="11544" windowHeight="8424" xr2:uid="{34F79D0E-12D3-47FE-B8D0-9BCC6E033D02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CD0FB38-7E0F-4342-85B2-EA958E05A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>45 days</t>
   </si>
@@ -51,27 +51,23 @@
     <t>ABFRL</t>
   </si>
   <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>IOC</t>
+    <t>PNB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,12 +412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD136CE3-67CC-4272-91B0-F94C979B783D}">
-  <dimension ref="A1:S12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A462574D-36D4-4A8A-AD23-962F6B706440}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -477,62 +480,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.61799999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <v>1.236</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>1.6180000000000001</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.38200000000000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>0.5</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0.61799999999999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
         <v>1.236</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>1.6180000000000001</v>
       </c>
     </row>
@@ -715,418 +718,183 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>155</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C6">
-        <v>161.58000000000001</v>
+        <v>80.819999999999993</v>
       </c>
       <c r="D6">
-        <v>165.66</v>
+        <v>84.04</v>
       </c>
       <c r="E6">
-        <v>168.95</v>
+        <v>86.65</v>
       </c>
       <c r="F6">
-        <v>172.24</v>
+        <v>89.26</v>
       </c>
       <c r="G6">
-        <v>176.93</v>
-      </c>
-      <c r="H6">
-        <v>182.9</v>
+        <v>92.97</v>
+      </c>
+      <c r="H6" s="1">
+        <v>97.7</v>
       </c>
       <c r="I6">
-        <v>189.48</v>
+        <v>102.92</v>
       </c>
       <c r="J6">
-        <v>200.14</v>
+        <v>111.36</v>
       </c>
       <c r="K6">
-        <v>155</v>
+        <v>84.75</v>
       </c>
       <c r="L6">
-        <v>157.99</v>
+        <v>87.81</v>
       </c>
       <c r="M6">
-        <v>159.83000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="N6">
-        <v>161.32</v>
+        <v>91.22</v>
       </c>
       <c r="O6">
-        <v>162.82</v>
+        <v>92.75</v>
       </c>
       <c r="P6">
-        <v>164.94</v>
-      </c>
-      <c r="Q6">
-        <v>167.65</v>
+        <v>94.93</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>97.7</v>
       </c>
       <c r="R6">
-        <v>170.64</v>
+        <v>100.76</v>
       </c>
       <c r="S6">
-        <v>175.47</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>212.45</v>
+        <v>155</v>
       </c>
       <c r="C7">
-        <v>220.13</v>
+        <v>161.58000000000001</v>
       </c>
       <c r="D7">
-        <v>224.88</v>
+        <v>165.66</v>
       </c>
       <c r="E7">
-        <v>228.72</v>
+        <v>168.95</v>
       </c>
       <c r="F7">
-        <v>232.57</v>
+        <v>172.24</v>
       </c>
       <c r="G7">
-        <v>238.03</v>
+        <v>176.93</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>182.9</v>
       </c>
       <c r="I7">
-        <v>252.68</v>
+        <v>189.48</v>
       </c>
       <c r="J7">
-        <v>265.12</v>
+        <v>200.14</v>
       </c>
       <c r="K7">
-        <v>215.4</v>
+        <v>155</v>
       </c>
       <c r="L7">
-        <v>220.64</v>
+        <v>157.99</v>
       </c>
       <c r="M7">
-        <v>223.88</v>
+        <v>159.83000000000001</v>
       </c>
       <c r="N7">
-        <v>226.5</v>
+        <v>161.32</v>
       </c>
       <c r="O7">
-        <v>229.12</v>
+        <v>162.82</v>
       </c>
       <c r="P7">
-        <v>232.85</v>
+        <v>164.94</v>
       </c>
       <c r="Q7">
-        <v>237.6</v>
+        <v>167.65</v>
       </c>
       <c r="R7">
-        <v>242.84</v>
+        <v>170.64</v>
       </c>
       <c r="S7">
-        <v>251.32</v>
+        <v>175.47</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>242.15</v>
+        <v>212.45</v>
       </c>
       <c r="C8">
-        <v>255.73</v>
+        <v>220.13</v>
       </c>
       <c r="D8">
-        <v>264.13</v>
+        <v>224.88</v>
       </c>
       <c r="E8">
-        <v>270.92</v>
+        <v>228.72</v>
       </c>
       <c r="F8">
-        <v>277.72000000000003</v>
+        <v>232.57</v>
       </c>
       <c r="G8">
-        <v>287.38</v>
+        <v>238.03</v>
       </c>
       <c r="H8">
-        <v>299.7</v>
+        <v>245</v>
       </c>
       <c r="I8">
-        <v>313.27999999999997</v>
+        <v>252.68</v>
       </c>
       <c r="J8">
-        <v>335.27</v>
+        <v>265.12</v>
       </c>
       <c r="K8">
-        <v>248.15</v>
+        <v>215.4</v>
       </c>
       <c r="L8">
-        <v>257.20999999999998</v>
+        <v>220.64</v>
       </c>
       <c r="M8">
-        <v>262.82</v>
+        <v>223.88</v>
       </c>
       <c r="N8">
-        <v>267.35000000000002</v>
+        <v>226.5</v>
       </c>
       <c r="O8">
-        <v>271.88</v>
+        <v>229.12</v>
       </c>
       <c r="P8">
-        <v>278.33</v>
+        <v>232.85</v>
       </c>
       <c r="Q8">
-        <v>286.55</v>
+        <v>237.6</v>
       </c>
       <c r="R8">
-        <v>295.61</v>
+        <v>242.84</v>
       </c>
       <c r="S8">
-        <v>310.27999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>122.9</v>
-      </c>
-      <c r="C9">
-        <v>132.66999999999999</v>
-      </c>
-      <c r="D9">
-        <v>138.71</v>
-      </c>
-      <c r="E9">
-        <v>143.6</v>
-      </c>
-      <c r="F9">
-        <v>148.49</v>
-      </c>
-      <c r="G9">
-        <v>155.44</v>
-      </c>
-      <c r="H9">
-        <v>164.3</v>
-      </c>
-      <c r="I9">
-        <v>174.07</v>
-      </c>
-      <c r="J9">
-        <v>189.89</v>
-      </c>
-      <c r="K9">
-        <v>134.85</v>
-      </c>
-      <c r="L9">
-        <v>141.80000000000001</v>
-      </c>
-      <c r="M9">
-        <v>146.1</v>
-      </c>
-      <c r="N9">
-        <v>149.57</v>
-      </c>
-      <c r="O9">
-        <v>153.05000000000001</v>
-      </c>
-      <c r="P9">
-        <v>158</v>
-      </c>
-      <c r="Q9">
-        <v>164.3</v>
-      </c>
-      <c r="R9">
-        <v>171.25</v>
-      </c>
-      <c r="S9">
-        <v>182.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>327.85</v>
-      </c>
-      <c r="C10">
-        <v>357.8</v>
-      </c>
-      <c r="D10">
-        <v>376.33</v>
-      </c>
-      <c r="E10">
-        <v>391.3</v>
-      </c>
-      <c r="F10">
-        <v>406.27</v>
-      </c>
-      <c r="G10">
-        <v>427.59</v>
-      </c>
-      <c r="H10">
-        <v>454.75</v>
-      </c>
-      <c r="I10">
-        <v>484.7</v>
-      </c>
-      <c r="J10">
-        <v>533.16999999999996</v>
-      </c>
-      <c r="K10">
-        <v>389.2</v>
-      </c>
-      <c r="L10">
-        <v>402.31</v>
-      </c>
-      <c r="M10">
-        <v>410.42</v>
-      </c>
-      <c r="N10">
-        <v>416.98</v>
-      </c>
-      <c r="O10">
-        <v>423.53</v>
-      </c>
-      <c r="P10">
-        <v>432.86</v>
-      </c>
-      <c r="Q10">
-        <v>444.75</v>
-      </c>
-      <c r="R10">
-        <v>457.86</v>
-      </c>
-      <c r="S10">
-        <v>479.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>87.8</v>
-      </c>
-      <c r="C11">
-        <v>96.76</v>
-      </c>
-      <c r="D11">
-        <v>102.3</v>
-      </c>
-      <c r="E11">
-        <v>106.78</v>
-      </c>
-      <c r="F11">
-        <v>111.25</v>
-      </c>
-      <c r="G11">
-        <v>117.63</v>
-      </c>
-      <c r="H11">
-        <v>125.75</v>
-      </c>
-      <c r="I11">
-        <v>134.71</v>
-      </c>
-      <c r="J11">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="K11">
-        <v>102.15</v>
-      </c>
-      <c r="L11">
-        <v>107.72</v>
-      </c>
-      <c r="M11">
-        <v>111.17</v>
-      </c>
-      <c r="N11">
-        <v>113.95</v>
-      </c>
-      <c r="O11">
-        <v>116.73</v>
-      </c>
-      <c r="P11">
-        <v>120.7</v>
-      </c>
-      <c r="Q11">
-        <v>125.75</v>
-      </c>
-      <c r="R11">
-        <v>131.32</v>
-      </c>
-      <c r="S11">
-        <v>140.33000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>99.15</v>
-      </c>
-      <c r="C12">
-        <v>107.36</v>
-      </c>
-      <c r="D12">
-        <v>112.44</v>
-      </c>
-      <c r="E12">
-        <v>116.55</v>
-      </c>
-      <c r="F12">
-        <v>120.66</v>
-      </c>
-      <c r="G12">
-        <v>126.5</v>
-      </c>
-      <c r="H12">
-        <v>133.94999999999999</v>
-      </c>
-      <c r="I12">
-        <v>142.16</v>
-      </c>
-      <c r="J12">
-        <v>155.46</v>
-      </c>
-      <c r="K12">
-        <v>117.35</v>
-      </c>
-      <c r="L12">
-        <v>121.27</v>
-      </c>
-      <c r="M12">
-        <v>123.69</v>
-      </c>
-      <c r="N12">
-        <v>125.65</v>
-      </c>
-      <c r="O12">
-        <v>127.61</v>
-      </c>
-      <c r="P12">
-        <v>130.4</v>
-      </c>
-      <c r="Q12">
-        <v>133.94999999999999</v>
-      </c>
-      <c r="R12">
-        <v>137.87</v>
-      </c>
-      <c r="S12">
-        <v>144.21</v>
+        <v>251.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>